--- a/biology/Zoologie/Hemisarcoptes/Hemisarcoptes.xlsx
+++ b/biology/Zoologie/Hemisarcoptes/Hemisarcoptes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemisarcoptes est un genre d'acariens de la famille des Hemisarcoptidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre d'acariens Hemisarcoptes a été décrit en 1893 par le bactériologiste et vétérinaire franco-argentin Joseph Léon Lignières (1868-1933)[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre d'acariens Hemisarcoptes a été décrit en 1893 par le bactériologiste et vétérinaire franco-argentin Joseph Léon Lignières (1868-1933),. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa description en 1893, Hemisarcoptes coccisugus, qui était l'espèce type dans cette publication, avait été retrouvée sur les coques de Mytilaspis pomicorticis[2], un insecte hémiptère de la super-famille des cochenilles.  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description en 1893, Hemisarcoptes coccisugus, qui était l'espèce type dans cette publication, avait été retrouvée sur les coques de Mytilaspis pomicorticis, un insecte hémiptère de la super-famille des cochenilles.  
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 février 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 février 2023) :
 Hemisarcoptes budensis Fain &amp; Ripka, 1998
 Hemisarcoptes coccophagus Meyer, 1962
 Hemisarcoptes cooremani (Thomas, 1961)
@@ -608,10 +626,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Hemisarcoptes Lignières, 1893[3].
-Hemisarcoptes a pour synonyme[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Hemisarcoptes Lignières, 1893.
+Hemisarcoptes a pour synonyme :
 Hemisarcocoptes Oudemans, 1904</t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Joseph Lignières, « Étude zoologique et anatomique de l’Hemisarcoptes coccisugus », Mémoires de la Société zoologique de France, vol. 6,‎ 1893, p. 16-25 (ISSN 0750-747X, lire en ligne)</t>
         </is>
